--- a/biology/Zoologie/Heteroscorpion/Heteroscorpion.xlsx
+++ b/biology/Zoologie/Heteroscorpion/Heteroscorpion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteroscorpion, unique représentant de la famille des Heteroscorpionidae, est un genre de scorpions.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (14/06/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (14/06/2020) :
 Heteroscorpion goodmani Lourenço, 1996
 Heteroscorpion kaii Lourenço &amp; Goodman, 2009
 Heteroscorpion kraepelini Lourenço &amp; Goodman, 2006
@@ -578,9 +594,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traditionnellement, les Heteroscorpioninae étaient considérés comme une sous-famille des Scorpionidae. En 1990 Sissom[3] place Heteroscorpion dans les Ischnuridae. Lourenço en 1996[4] élèvent les Heteroscorpioninae  au rang de famille.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement, les Heteroscorpioninae étaient considérés comme une sous-famille des Scorpionidae. En 1990 Sissom place Heteroscorpion dans les Ischnuridae. Lourenço en 1996 élèvent les Heteroscorpioninae  au rang de famille.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Birula, 1903 : Sur une nouvelle espèce de scorpions provenant de l'île de Madagascar. Annuaire du Museum Zoologique de l’Académie Impériale des Sciences de St.-Pétersbourg, vol. 8, p. X–XI (texte intégral).
 Kraepelin, 1905 : Die Geographische Verbreitung der Scorpione. Zoologische Jahrbücher, Abtheilung für Systematik, vol. 22, no 3, p. 321–364 (texte intégral).</t>
